--- a/Carona.xlsx
+++ b/Carona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bruno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE278062-69C3-41BC-9B2C-0E853A165A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4259407A-5475-4F80-8147-8BAC73C1DD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5640" yWindow="3600" windowWidth="21600" windowHeight="11385" xr2:uid="{AB2ABB61-42DC-4DC5-9EDC-46638D2D9FE9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="29">
   <si>
     <t>Ida</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Érika Letícia (Nordeste)</t>
+  </si>
+  <si>
+    <t>Joana (Jardim América)</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
   <dimension ref="A6:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +709,9 @@
       <c r="F18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -1221,16 +1226,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A31:A34"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A31:A34"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Carona.xlsx
+++ b/Carona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bruno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4259407A-5475-4F80-8147-8BAC73C1DD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D02B591-866F-4539-BE07-87B48CD8872E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5640" yWindow="3600" windowWidth="21600" windowHeight="11385" xr2:uid="{AB2ABB61-42DC-4DC5-9EDC-46638D2D9FE9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="34">
   <si>
     <t>Ida</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Elizangela (Formosinha)</t>
   </si>
   <si>
-    <t>Eliane (Centro)</t>
-  </si>
-  <si>
     <t>Vanusa (Imperatriz)</t>
   </si>
   <si>
@@ -121,14 +118,40 @@
   </si>
   <si>
     <t>Joana (Jardim América)</t>
+  </si>
+  <si>
+    <t>Yan Matheus (Parque Lago)</t>
+  </si>
+  <si>
+    <t>Sérgio (Oliveira)</t>
+  </si>
+  <si>
+    <t>Josimar (Nordeste)</t>
+  </si>
+  <si>
+    <t>Adriana (Centro)</t>
+  </si>
+  <si>
+    <t>Juliana Couto (Oliveira)</t>
+  </si>
+  <si>
+    <t>Rogério (Oliveira)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -144,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,14 +190,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FDA311-6257-4742-9A38-06396BF6D43D}">
-  <dimension ref="A6:G54"/>
+  <dimension ref="A6:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +557,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -542,7 +578,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
@@ -561,7 +597,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
@@ -576,11 +612,11 @@
         <v>17</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -588,12 +624,12 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -614,7 +650,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -627,11 +663,11 @@
         <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
@@ -641,14 +677,14 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
@@ -657,7 +693,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -677,8 +713,8 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -696,8 +732,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
@@ -707,14 +743,14 @@
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
@@ -724,12 +760,14 @@
         <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
@@ -739,12 +777,14 @@
         <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -753,17 +793,17 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
@@ -773,37 +813,46 @@
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="G23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>44487</v>
       </c>
@@ -820,8 +869,8 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -843,72 +892,78 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
@@ -927,22 +982,26 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -966,7 +1025,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -989,25 +1048,33 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1015,43 +1082,41 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
@@ -1070,7 +1135,7 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="2" t="s">
         <v>4</v>
       </c>
@@ -1081,7 +1146,7 @@
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
@@ -1109,7 +1174,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1130,33 +1195,35 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
@@ -1167,28 +1234,28 @@
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="2" t="s">
         <v>3</v>
       </c>
@@ -1203,7 +1270,7 @@
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="2" t="s">
         <v>4</v>
       </c>
@@ -1214,7 +1281,7 @@
       <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+      <c r="A54" s="5"/>
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
@@ -1238,5 +1305,6 @@
     <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Carona.xlsx
+++ b/Carona.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bruno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D02B591-866F-4539-BE07-87B48CD8872E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A60E5B-FE33-4918-B179-6ACF436A048B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="3600" windowWidth="21600" windowHeight="11385" xr2:uid="{AB2ABB61-42DC-4DC5-9EDC-46638D2D9FE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB2ABB61-42DC-4DC5-9EDC-46638D2D9FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="35">
   <si>
     <t>Ida</t>
   </si>
@@ -136,13 +137,19 @@
   </si>
   <si>
     <t>Rogério (Oliveira)</t>
+  </si>
+  <si>
+    <t>PG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +159,13 @@
     </font>
     <font>
       <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -202,10 +216,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -214,8 +229,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -531,7 +549,7 @@
   <dimension ref="A6:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,18 +1311,187 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A27:A30"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC07818F-0A5D-4D20-B8CC-9558351B63FA}">
+  <dimension ref="F5:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>44482</v>
+      </c>
+      <c r="G7" s="6">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="7">
+        <f>G$5-G7</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>44487</v>
+      </c>
+      <c r="G8" s="6">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="7">
+        <f>I7-G8</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>44488</v>
+      </c>
+      <c r="G9" s="6">
+        <v>30</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" ref="I9:I17" si="0">I8-G9</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>44489</v>
+      </c>
+      <c r="G10" s="6">
+        <v>30</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>44490</v>
+      </c>
+      <c r="G11" s="6">
+        <v>30</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>44491</v>
+      </c>
+      <c r="G12" s="6">
+        <v>30</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="13" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>44494</v>
+      </c>
+      <c r="G13" s="6">
+        <v>30</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="0"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="14" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>44495</v>
+      </c>
+      <c r="G14" s="6">
+        <v>30</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="15" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>44496</v>
+      </c>
+      <c r="G15" s="6">
+        <v>30</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="0"/>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="16" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>44497</v>
+      </c>
+      <c r="G16" s="6">
+        <v>30</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="0"/>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>44498</v>
+      </c>
+      <c r="G17" s="6">
+        <v>30</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="0"/>
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="6">
+        <f>SUM(G7:G17)</f>
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Carona.xlsx
+++ b/Carona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bruno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A60E5B-FE33-4918-B179-6ACF436A048B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85066F5A-BDAB-468C-88BD-19A82CA65E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB2ABB61-42DC-4DC5-9EDC-46638D2D9FE9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="36">
   <si>
     <t>Ida</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>PG</t>
+  </si>
+  <si>
+    <t>Ana Paula (Oliveira)</t>
   </si>
 </sst>
 </file>
@@ -226,11 +229,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -549,7 +552,7 @@
   <dimension ref="A6:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +578,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -596,7 +599,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
@@ -615,7 +618,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
@@ -634,7 +637,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -647,7 +650,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -668,7 +671,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -685,7 +688,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
@@ -702,7 +705,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
@@ -732,7 +735,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -751,7 +754,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
@@ -768,7 +771,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
@@ -785,7 +788,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
@@ -802,7 +805,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -821,7 +824,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
@@ -838,7 +841,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
@@ -856,7 +859,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
@@ -888,7 +891,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -911,7 +914,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
@@ -932,20 +935,22 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
@@ -958,7 +963,7 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -981,7 +986,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1000,7 +1005,7 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
@@ -1013,7 +1018,7 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
@@ -1043,7 +1048,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1066,7 +1071,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1087,7 +1092,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="2" t="s">
         <v>4</v>
       </c>
@@ -1100,7 +1105,7 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1111,7 +1116,7 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1134,7 +1139,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
@@ -1153,7 +1158,7 @@
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="2" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1169,7 @@
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
@@ -1192,7 +1197,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1213,7 +1218,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
@@ -1230,7 +1235,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="2" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1246,7 @@
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
@@ -1252,7 +1257,7 @@
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -1273,7 +1278,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="2" t="s">
         <v>3</v>
       </c>
@@ -1288,7 +1293,7 @@
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="2" t="s">
         <v>4</v>
       </c>
@@ -1299,7 +1304,7 @@
       <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
@@ -1311,16 +1316,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A31:A34"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A31:A34"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1343,7 +1348,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>150</v>
       </c>
     </row>
@@ -1351,13 +1356,13 @@
       <c r="F7" s="1">
         <v>44482</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>30</v>
       </c>
       <c r="H7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f>G$5-G7</f>
         <v>120</v>
       </c>
@@ -1366,13 +1371,13 @@
       <c r="F8" s="1">
         <v>44487</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>30</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <f>I7-G8</f>
         <v>90</v>
       </c>
@@ -1381,10 +1386,10 @@
       <c r="F9" s="1">
         <v>44488</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>30</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f t="shared" ref="I9:I17" si="0">I8-G9</f>
         <v>60</v>
       </c>
@@ -1393,10 +1398,10 @@
       <c r="F10" s="1">
         <v>44489</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>30</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1405,10 +1410,10 @@
       <c r="F11" s="1">
         <v>44490</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>30</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1417,10 +1422,10 @@
       <c r="F12" s="1">
         <v>44491</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>30</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <f t="shared" si="0"/>
         <v>-30</v>
       </c>
@@ -1429,10 +1434,10 @@
       <c r="F13" s="1">
         <v>44494</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>30</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <f t="shared" si="0"/>
         <v>-60</v>
       </c>
@@ -1441,10 +1446,10 @@
       <c r="F14" s="1">
         <v>44495</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>30</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <f t="shared" si="0"/>
         <v>-90</v>
       </c>
@@ -1453,10 +1458,10 @@
       <c r="F15" s="1">
         <v>44496</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>30</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f t="shared" si="0"/>
         <v>-120</v>
       </c>
@@ -1465,10 +1470,10 @@
       <c r="F16" s="1">
         <v>44497</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>30</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <f t="shared" si="0"/>
         <v>-150</v>
       </c>
@@ -1477,16 +1482,16 @@
       <c r="F17" s="1">
         <v>44498</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>30</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <f t="shared" si="0"/>
         <v>-180</v>
       </c>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f>SUM(G7:G17)</f>
         <v>330</v>
       </c>
